--- a/Role Distribution.xlsx
+++ b/Role Distribution.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexborden/Desktop/stroke_prediction_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095FF95E-5A0B-B044-B1FC-076628AE2FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CFC69D-E037-A44C-B63A-0A5C8938C1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23420" yWindow="-1980" windowWidth="23420" windowHeight="19460" xr2:uid="{DCA70308-FC54-D54A-827D-9C597C8BD600}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Role Distrubtion" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -65,12 +65,6 @@
     <t xml:space="preserve">Segment 1 </t>
   </si>
   <si>
-    <t>Square (Repository)</t>
-  </si>
-  <si>
-    <t>X (Technology)</t>
-  </si>
-  <si>
     <t>Circle (SQL)</t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   <si>
     <t>Circle (Perform a quality assurance check on 
 project deliverables against rubric requirements, and test the code.)</t>
+  </si>
+  <si>
+    <t>X (Technology/Dashboard)</t>
+  </si>
+  <si>
+    <t>Square (Repository/Presentation)</t>
   </si>
 </sst>
 </file>
@@ -310,6 +310,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -327,9 +330,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -344,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D14A6CA4-0093-684F-82D4-30266D455C87}" name="Table3" displayName="Table3" ref="A1:E5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D14A6CA4-0093-684F-82D4-30266D455C87}" name="Table3" displayName="Table3" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E5" xr:uid="{D14A6CA4-0093-684F-82D4-30266D455C87}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8CC50D6A-9A09-6C46-82E2-EC489E8D615B}" name="Name" dataDxfId="4"/>
@@ -657,12 +657,12 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.1640625" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" customWidth="1"/>
     <col min="5" max="5" width="64.5" customWidth="1"/>
@@ -691,72 +691,72 @@
       <c r="G1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="356" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="302" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Role Distribution.xlsx
+++ b/Role Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexborden/Desktop/stroke_prediction_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CFC69D-E037-A44C-B63A-0A5C8938C1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D4459E-A2D4-D54D-9FF6-91954FDF4231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23420" yWindow="-1980" windowWidth="23420" windowHeight="19460" xr2:uid="{DCA70308-FC54-D54A-827D-9C597C8BD600}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{DCA70308-FC54-D54A-827D-9C597C8BD600}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Distrubtion" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
 create visuals to accompany the data story.)</t>
   </si>
   <si>
-    <t>Triangle ( Transform the mockup database into a full database that integrates with your work.)</t>
-  </si>
-  <si>
     <t>X (Perform a quality assurance check on 
 project deliverables against rubric requirements, and test the code.</t>
   </si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Square (Repository/Presentation)</t>
+  </si>
+  <si>
+    <t>Triangle (Transform the mockup database into a full database that integrates with your work.)</t>
   </si>
 </sst>
 </file>
@@ -180,13 +180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -656,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2144D4C-F346-404F-80FF-0A99102D0BC2}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +668,7 @@
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.1640625" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="64.5" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
@@ -696,16 +699,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -713,16 +716,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -730,16 +733,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="98" customHeight="1" x14ac:dyDescent="0.2">
@@ -749,14 +752,14 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Role Distribution.xlsx
+++ b/Role Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexborden/Desktop/stroke_prediction_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D4459E-A2D4-D54D-9FF6-91954FDF4231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAF153C-49CF-4E41-B7D7-10D096DB937D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{DCA70308-FC54-D54A-827D-9C597C8BD600}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{DCA70308-FC54-D54A-827D-9C597C8BD600}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Distrubtion" sheetId="1" r:id="rId1"/>
@@ -659,14 +659,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2144D4C-F346-404F-80FF-0A99102D0BC2}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" customWidth="1"/>
     <col min="5" max="5" width="54.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
